--- a/BackTest/2020-01-20 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-20 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4114,7 +4114,7 @@
         <v>724959.5322042996</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>631030.528102871</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>631476.1659028711</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>695112.9578557758</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>694384.9633557758</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>646272.5083557758</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>634790.9934305402</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>633538.3001689049</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>639225.6510689049</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>630697.7507689049</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>617801.7460689049</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>611580.1585689049</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>612847.2282689048</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>592683.6697689048</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>576395.5228689048</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>684623.2149359218</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>667949.1211620128</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>662496.5661620128</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>662496.5661620128</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>818215.8265097238</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>775796.8052720947</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>778301.8282720947</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>757063.4856648484</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>778770.0151908721</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>795931.4997908721</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>778682.0603609545</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>772827.8536609545</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>732892.6863609545</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>758852.4356609546</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>764910.0213609546</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>821266.4228390523</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>830315.6944390523</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>820061.4336390522</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>816578.8202390522</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>807512.8038390522</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>785350.5956390522</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>812547.1629390522</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>808700.7850390523</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>807523.5853390523</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>801997.7832390523</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>758106.0476326874</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>745118.0685326874</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>756981.6844326874</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>771892.0182685285</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>771892.0182685285</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>778820.8633819189</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>763642.2150079189</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>753483.6429079189</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>716264.7856079189</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>717472.5358079189</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>747510.6653202081</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>747218.2570202081</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>748276.994420208</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>758188.605920208</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>760607.4508202081</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>755733.022320208</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>749375.874220208</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>747374.793220208</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>724430.8650202081</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>727844.8473202081</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>706133.0001202081</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>738422.4573202081</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>755680.0504202081</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>774495.6099202081</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>774344.9773202081</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>774344.9773202081</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>774344.9773202081</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>773502.1099202081</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>771584.4242335326</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>774292.5178917679</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>763722.2398574395</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>730349.1648380904</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>670083.9501380904</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>676175.5636380904</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>661160.3714380903</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>766333.3698380904</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>764065.2970380904</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>770325.3589494469</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>782037.0428494469</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>767750.1707494468</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>755759.6318494468</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>717266.8383494468</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>684165.9181494467</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>717635.9590494467</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>727191.9448494468</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>738534.5747494467</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>736345.0993494467</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>708330.0521048922</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>705430.2194048923</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>685043.3472048923</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>722117.9743584299</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>722117.9743584299</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>721815.7100584299</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>722012.2142584298</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>723202.8943584298</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>723202.8943584298</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>723202.8943584298</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>719896.6961584298</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>719891.7886584299</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>719758.1145656871</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>718620.4202656872</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>719087.0423656872</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>694259.1120656872</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>695147.2593656871</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>691654.4808332031</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>692532.785300719</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>694672.3533007189</v>
       </c>
       <c r="H610" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>694739.661800719</v>
       </c>
       <c r="H611" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>692838.005400719</v>
       </c>
       <c r="H612" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>692068.8644007191</v>
       </c>
       <c r="H613" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>692068.8644007191</v>
       </c>
       <c r="H614" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>666369.9658007191</v>
       </c>
       <c r="H615" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>626090.1509007191</v>
       </c>
       <c r="H616" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>627581.5574007191</v>
       </c>
       <c r="H617" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>588375.2155135592</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>577121.1148135591</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>577517.5360135591</v>
       </c>
       <c r="H713" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>577517.5360135591</v>
       </c>
       <c r="H714" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>577531.0097135591</v>
       </c>
       <c r="H715" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>577531.0097135591</v>
       </c>
       <c r="H716" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>577531.0097135591</v>
       </c>
       <c r="H717" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>577522.731213559</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>577522.731213559</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>605580.4591135591</v>
       </c>
       <c r="H720" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>605580.4591135591</v>
       </c>
       <c r="H721" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>605646.5213135591</v>
       </c>
       <c r="H723" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>605646.5213135591</v>
       </c>
       <c r="H724" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>604266.8900135591</v>
       </c>
       <c r="H725" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>604266.8900135591</v>
       </c>
       <c r="H726" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>603418.3530135591</v>
       </c>
       <c r="H727" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>604290.7877582193</v>
       </c>
       <c r="H728" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>601484.8970582193</v>
       </c>
       <c r="H729" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>603807.6164582192</v>
       </c>
       <c r="H730" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>603810.5056582192</v>
       </c>
       <c r="H731" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>603810.5056582192</v>
       </c>
       <c r="H732" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>603810.5056582192</v>
       </c>
       <c r="H733" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>603810.5056582192</v>
       </c>
       <c r="H734" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>602855.8493582192</v>
       </c>
       <c r="H735" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>602855.8493582192</v>
       </c>
       <c r="H736" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>602237.0167582192</v>
       </c>
       <c r="H737" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>604275.9356582193</v>
       </c>
       <c r="H738" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>604275.9356582193</v>
       </c>
       <c r="H739" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>603862.4584582193</v>
       </c>
       <c r="H740" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>602390.1793582193</v>
       </c>
       <c r="H741" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>602393.7053582192</v>
       </c>
       <c r="H742" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>596531.8638582192</v>
       </c>
       <c r="H743" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>596387.0873582192</v>
       </c>
       <c r="H745" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>599396.5302582192</v>
       </c>
       <c r="H756" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>584869.1655582192</v>
       </c>
       <c r="H757" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>584869.1655582192</v>
       </c>
       <c r="H758" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>584487.8114582192</v>
       </c>
       <c r="H759" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>584939.2273582192</v>
       </c>
       <c r="H761" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>574163.9481582191</v>
       </c>
       <c r="H763" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>575285.4540582191</v>
       </c>
       <c r="H765" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>559005.9918582189</v>
       </c>
       <c r="H796" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>564604.043158219</v>
       </c>
       <c r="H797" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +26719,7 @@
         <v>571231.068558219</v>
       </c>
       <c r="H798" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>585530.7916223216</v>
       </c>
       <c r="H799" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>589678.8613223216</v>
       </c>
       <c r="H800" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>601171.6733223216</v>
       </c>
       <c r="H801" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>602902.2471223216</v>
       </c>
       <c r="H802" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +26884,7 @@
         <v>602902.2471223216</v>
       </c>
       <c r="H803" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>594406.6508223217</v>
       </c>
       <c r="H804" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>594406.6508223217</v>
       </c>
       <c r="H805" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -26983,7 +26983,7 @@
         <v>593898.4721223216</v>
       </c>
       <c r="H806" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27016,7 +27016,7 @@
         <v>592605.9106223217</v>
       </c>
       <c r="H807" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27049,7 @@
         <v>585093.7662223217</v>
       </c>
       <c r="H808" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -32692,514 +32692,446 @@
         <v>447020.5521079797</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
-      </c>
-      <c r="I979" t="n">
+        <v>0</v>
+      </c>
+      <c r="I979" t="inlineStr"/>
+      <c r="J979" t="inlineStr"/>
+      <c r="K979" t="inlineStr"/>
+      <c r="L979" t="n">
+        <v>1</v>
+      </c>
+      <c r="M979" t="inlineStr"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="1" t="n">
+        <v>978</v>
+      </c>
+      <c r="B980" t="n">
+        <v>277</v>
+      </c>
+      <c r="C980" t="n">
+        <v>276.1</v>
+      </c>
+      <c r="D980" t="n">
+        <v>277</v>
+      </c>
+      <c r="E980" t="n">
+        <v>276.1</v>
+      </c>
+      <c r="F980" t="n">
+        <v>362.7765</v>
+      </c>
+      <c r="G980" t="n">
+        <v>447383.3286079796</v>
+      </c>
+      <c r="H980" t="n">
+        <v>0</v>
+      </c>
+      <c r="I980" t="inlineStr"/>
+      <c r="J980" t="inlineStr"/>
+      <c r="K980" t="inlineStr"/>
+      <c r="L980" t="n">
+        <v>1</v>
+      </c>
+      <c r="M980" t="inlineStr"/>
+    </row>
+    <row r="981">
+      <c r="A981" s="1" t="n">
+        <v>979</v>
+      </c>
+      <c r="B981" t="n">
         <v>276</v>
       </c>
-      <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr">
+      <c r="C981" t="n">
+        <v>275.1</v>
+      </c>
+      <c r="D981" t="n">
+        <v>276</v>
+      </c>
+      <c r="E981" t="n">
+        <v>275.1</v>
+      </c>
+      <c r="F981" t="n">
+        <v>4416.9566</v>
+      </c>
+      <c r="G981" t="n">
+        <v>442966.3720079797</v>
+      </c>
+      <c r="H981" t="n">
+        <v>0</v>
+      </c>
+      <c r="I981" t="inlineStr"/>
+      <c r="J981" t="inlineStr"/>
+      <c r="K981" t="inlineStr"/>
+      <c r="L981" t="n">
+        <v>1</v>
+      </c>
+      <c r="M981" t="inlineStr"/>
+    </row>
+    <row r="982">
+      <c r="A982" s="1" t="n">
+        <v>980</v>
+      </c>
+      <c r="B982" t="n">
+        <v>277.9</v>
+      </c>
+      <c r="C982" t="n">
+        <v>275.2</v>
+      </c>
+      <c r="D982" t="n">
+        <v>277.9</v>
+      </c>
+      <c r="E982" t="n">
+        <v>275.2</v>
+      </c>
+      <c r="F982" t="n">
+        <v>2266.463308420295</v>
+      </c>
+      <c r="G982" t="n">
+        <v>445232.8353164</v>
+      </c>
+      <c r="H982" t="n">
+        <v>0</v>
+      </c>
+      <c r="I982" t="inlineStr"/>
+      <c r="J982" t="inlineStr"/>
+      <c r="K982" t="inlineStr"/>
+      <c r="L982" t="n">
+        <v>1</v>
+      </c>
+      <c r="M982" t="inlineStr"/>
+    </row>
+    <row r="983">
+      <c r="A983" s="1" t="n">
+        <v>981</v>
+      </c>
+      <c r="B983" t="n">
+        <v>275.2</v>
+      </c>
+      <c r="C983" t="n">
+        <v>275.2</v>
+      </c>
+      <c r="D983" t="n">
+        <v>275.2</v>
+      </c>
+      <c r="E983" t="n">
+        <v>275.2</v>
+      </c>
+      <c r="F983" t="n">
+        <v>3355.7488</v>
+      </c>
+      <c r="G983" t="n">
+        <v>445232.8353164</v>
+      </c>
+      <c r="H983" t="n">
+        <v>0</v>
+      </c>
+      <c r="I983" t="inlineStr"/>
+      <c r="J983" t="inlineStr"/>
+      <c r="K983" t="inlineStr"/>
+      <c r="L983" t="n">
+        <v>1</v>
+      </c>
+      <c r="M983" t="inlineStr"/>
+    </row>
+    <row r="984">
+      <c r="A984" s="1" t="n">
+        <v>982</v>
+      </c>
+      <c r="B984" t="n">
+        <v>275.1</v>
+      </c>
+      <c r="C984" t="n">
+        <v>273.5</v>
+      </c>
+      <c r="D984" t="n">
+        <v>275.1</v>
+      </c>
+      <c r="E984" t="n">
+        <v>273.5</v>
+      </c>
+      <c r="F984" t="n">
+        <v>17012.4497</v>
+      </c>
+      <c r="G984" t="n">
+        <v>428220.3856164</v>
+      </c>
+      <c r="H984" t="n">
+        <v>0</v>
+      </c>
+      <c r="I984" t="inlineStr"/>
+      <c r="J984" t="inlineStr"/>
+      <c r="K984" t="inlineStr"/>
+      <c r="L984" t="n">
+        <v>1</v>
+      </c>
+      <c r="M984" t="inlineStr"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="1" t="n">
+        <v>983</v>
+      </c>
+      <c r="B985" t="n">
+        <v>273.5</v>
+      </c>
+      <c r="C985" t="n">
+        <v>274.9</v>
+      </c>
+      <c r="D985" t="n">
+        <v>274.9</v>
+      </c>
+      <c r="E985" t="n">
+        <v>272.3</v>
+      </c>
+      <c r="F985" t="n">
+        <v>5046.8273</v>
+      </c>
+      <c r="G985" t="n">
+        <v>433267.2129164</v>
+      </c>
+      <c r="H985" t="n">
+        <v>0</v>
+      </c>
+      <c r="I985" t="inlineStr"/>
+      <c r="J985" t="inlineStr"/>
+      <c r="K985" t="inlineStr"/>
+      <c r="L985" t="n">
+        <v>1</v>
+      </c>
+      <c r="M985" t="inlineStr"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="1" t="n">
+        <v>984</v>
+      </c>
+      <c r="B986" t="n">
+        <v>273.8</v>
+      </c>
+      <c r="C986" t="n">
+        <v>275.1</v>
+      </c>
+      <c r="D986" t="n">
+        <v>275.1</v>
+      </c>
+      <c r="E986" t="n">
+        <v>273.8</v>
+      </c>
+      <c r="F986" t="n">
+        <v>34</v>
+      </c>
+      <c r="G986" t="n">
+        <v>433301.2129164</v>
+      </c>
+      <c r="H986" t="n">
+        <v>0</v>
+      </c>
+      <c r="I986" t="inlineStr"/>
+      <c r="J986" t="inlineStr"/>
+      <c r="K986" t="inlineStr"/>
+      <c r="L986" t="n">
+        <v>1</v>
+      </c>
+      <c r="M986" t="inlineStr"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="1" t="n">
+        <v>985</v>
+      </c>
+      <c r="B987" t="n">
+        <v>272.3</v>
+      </c>
+      <c r="C987" t="n">
+        <v>275.1</v>
+      </c>
+      <c r="D987" t="n">
+        <v>275.1</v>
+      </c>
+      <c r="E987" t="n">
+        <v>272.3</v>
+      </c>
+      <c r="F987" t="n">
+        <v>2529.8587</v>
+      </c>
+      <c r="G987" t="n">
+        <v>433301.2129164</v>
+      </c>
+      <c r="H987" t="n">
+        <v>0</v>
+      </c>
+      <c r="I987" t="inlineStr"/>
+      <c r="J987" t="inlineStr"/>
+      <c r="K987" t="inlineStr"/>
+      <c r="L987" t="n">
+        <v>1</v>
+      </c>
+      <c r="M987" t="inlineStr"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="1" t="n">
+        <v>986</v>
+      </c>
+      <c r="B988" t="n">
+        <v>275.1</v>
+      </c>
+      <c r="C988" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="D988" t="n">
+        <v>276.7</v>
+      </c>
+      <c r="E988" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="F988" t="n">
+        <v>73499.63069999999</v>
+      </c>
+      <c r="G988" t="n">
+        <v>359801.5822164</v>
+      </c>
+      <c r="H988" t="n">
+        <v>0</v>
+      </c>
+      <c r="I988" t="inlineStr"/>
+      <c r="J988" t="inlineStr"/>
+      <c r="K988" t="inlineStr"/>
+      <c r="L988" t="n">
+        <v>1</v>
+      </c>
+      <c r="M988" t="inlineStr"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="1" t="n">
+        <v>987</v>
+      </c>
+      <c r="B989" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="C989" t="n">
+        <v>266</v>
+      </c>
+      <c r="D989" t="n">
+        <v>266</v>
+      </c>
+      <c r="E989" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="F989" t="n">
+        <v>9167.6492</v>
+      </c>
+      <c r="G989" t="n">
+        <v>368969.2314164</v>
+      </c>
+      <c r="H989" t="n">
+        <v>0</v>
+      </c>
+      <c r="I989" t="inlineStr"/>
+      <c r="J989" t="inlineStr"/>
+      <c r="K989" t="inlineStr"/>
+      <c r="L989" t="n">
+        <v>1</v>
+      </c>
+      <c r="M989" t="inlineStr"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="1" t="n">
+        <v>988</v>
+      </c>
+      <c r="B990" t="n">
+        <v>266</v>
+      </c>
+      <c r="C990" t="n">
+        <v>265.8</v>
+      </c>
+      <c r="D990" t="n">
+        <v>268</v>
+      </c>
+      <c r="E990" t="n">
+        <v>265.8</v>
+      </c>
+      <c r="F990" t="n">
+        <v>15638.6673</v>
+      </c>
+      <c r="G990" t="n">
+        <v>353330.5641164</v>
+      </c>
+      <c r="H990" t="n">
+        <v>0</v>
+      </c>
+      <c r="I990" t="inlineStr"/>
+      <c r="J990" t="inlineStr"/>
+      <c r="K990" t="inlineStr"/>
+      <c r="L990" t="n">
+        <v>1</v>
+      </c>
+      <c r="M990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="1" t="n">
+        <v>989</v>
+      </c>
+      <c r="B991" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="C991" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="D991" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="E991" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="F991" t="n">
+        <v>44.3073</v>
+      </c>
+      <c r="G991" t="n">
+        <v>353286.2568164</v>
+      </c>
+      <c r="H991" t="n">
+        <v>0</v>
+      </c>
+      <c r="I991" t="inlineStr"/>
+      <c r="J991" t="inlineStr"/>
+      <c r="K991" t="inlineStr"/>
+      <c r="L991" t="n">
+        <v>1</v>
+      </c>
+      <c r="M991" t="inlineStr"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="1" t="n">
+        <v>990</v>
+      </c>
+      <c r="B992" t="n">
+        <v>267</v>
+      </c>
+      <c r="C992" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="D992" t="n">
+        <v>274</v>
+      </c>
+      <c r="E992" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="F992" t="n">
+        <v>14402.2699</v>
+      </c>
+      <c r="G992" t="n">
+        <v>338883.9869164</v>
+      </c>
+      <c r="H992" t="n">
+        <v>1</v>
+      </c>
+      <c r="I992" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="J992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L979" t="n">
-        <v>1</v>
-      </c>
-      <c r="M979" t="inlineStr"/>
-    </row>
-    <row r="980">
-      <c r="A980" s="1" t="n">
-        <v>978</v>
-      </c>
-      <c r="B980" t="n">
-        <v>277</v>
-      </c>
-      <c r="C980" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="D980" t="n">
-        <v>277</v>
-      </c>
-      <c r="E980" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="F980" t="n">
-        <v>362.7765</v>
-      </c>
-      <c r="G980" t="n">
-        <v>447383.3286079796</v>
-      </c>
-      <c r="H980" t="n">
-        <v>0</v>
-      </c>
-      <c r="I980" t="inlineStr"/>
-      <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L980" t="n">
-        <v>1</v>
-      </c>
-      <c r="M980" t="inlineStr"/>
-    </row>
-    <row r="981">
-      <c r="A981" s="1" t="n">
-        <v>979</v>
-      </c>
-      <c r="B981" t="n">
-        <v>276</v>
-      </c>
-      <c r="C981" t="n">
-        <v>275.1</v>
-      </c>
-      <c r="D981" t="n">
-        <v>276</v>
-      </c>
-      <c r="E981" t="n">
-        <v>275.1</v>
-      </c>
-      <c r="F981" t="n">
-        <v>4416.9566</v>
-      </c>
-      <c r="G981" t="n">
-        <v>442966.3720079797</v>
-      </c>
-      <c r="H981" t="n">
-        <v>0</v>
-      </c>
-      <c r="I981" t="inlineStr"/>
-      <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L981" t="n">
-        <v>1</v>
-      </c>
-      <c r="M981" t="inlineStr"/>
-    </row>
-    <row r="982">
-      <c r="A982" s="1" t="n">
-        <v>980</v>
-      </c>
-      <c r="B982" t="n">
-        <v>277.9</v>
-      </c>
-      <c r="C982" t="n">
-        <v>275.2</v>
-      </c>
-      <c r="D982" t="n">
-        <v>277.9</v>
-      </c>
-      <c r="E982" t="n">
-        <v>275.2</v>
-      </c>
-      <c r="F982" t="n">
-        <v>2266.463308420295</v>
-      </c>
-      <c r="G982" t="n">
-        <v>445232.8353164</v>
-      </c>
-      <c r="H982" t="n">
-        <v>0</v>
-      </c>
-      <c r="I982" t="inlineStr"/>
-      <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L982" t="n">
-        <v>1</v>
-      </c>
-      <c r="M982" t="inlineStr"/>
-    </row>
-    <row r="983">
-      <c r="A983" s="1" t="n">
-        <v>981</v>
-      </c>
-      <c r="B983" t="n">
-        <v>275.2</v>
-      </c>
-      <c r="C983" t="n">
-        <v>275.2</v>
-      </c>
-      <c r="D983" t="n">
-        <v>275.2</v>
-      </c>
-      <c r="E983" t="n">
-        <v>275.2</v>
-      </c>
-      <c r="F983" t="n">
-        <v>3355.7488</v>
-      </c>
-      <c r="G983" t="n">
-        <v>445232.8353164</v>
-      </c>
-      <c r="H983" t="n">
-        <v>2</v>
-      </c>
-      <c r="I983" t="n">
-        <v>275.2</v>
-      </c>
-      <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L983" t="n">
-        <v>1</v>
-      </c>
-      <c r="M983" t="inlineStr"/>
-    </row>
-    <row r="984">
-      <c r="A984" s="1" t="n">
-        <v>982</v>
-      </c>
-      <c r="B984" t="n">
-        <v>275.1</v>
-      </c>
-      <c r="C984" t="n">
-        <v>273.5</v>
-      </c>
-      <c r="D984" t="n">
-        <v>275.1</v>
-      </c>
-      <c r="E984" t="n">
-        <v>273.5</v>
-      </c>
-      <c r="F984" t="n">
-        <v>17012.4497</v>
-      </c>
-      <c r="G984" t="n">
-        <v>428220.3856164</v>
-      </c>
-      <c r="H984" t="n">
-        <v>2</v>
-      </c>
-      <c r="I984" t="n">
-        <v>275.2</v>
-      </c>
-      <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L984" t="n">
-        <v>1</v>
-      </c>
-      <c r="M984" t="inlineStr"/>
-    </row>
-    <row r="985">
-      <c r="A985" s="1" t="n">
-        <v>983</v>
-      </c>
-      <c r="B985" t="n">
-        <v>273.5</v>
-      </c>
-      <c r="C985" t="n">
-        <v>274.9</v>
-      </c>
-      <c r="D985" t="n">
-        <v>274.9</v>
-      </c>
-      <c r="E985" t="n">
-        <v>272.3</v>
-      </c>
-      <c r="F985" t="n">
-        <v>5046.8273</v>
-      </c>
-      <c r="G985" t="n">
-        <v>433267.2129164</v>
-      </c>
-      <c r="H985" t="n">
-        <v>2</v>
-      </c>
-      <c r="I985" t="n">
-        <v>273.5</v>
-      </c>
-      <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L985" t="n">
-        <v>1</v>
-      </c>
-      <c r="M985" t="inlineStr"/>
-    </row>
-    <row r="986">
-      <c r="A986" s="1" t="n">
-        <v>984</v>
-      </c>
-      <c r="B986" t="n">
-        <v>273.8</v>
-      </c>
-      <c r="C986" t="n">
-        <v>275.1</v>
-      </c>
-      <c r="D986" t="n">
-        <v>275.1</v>
-      </c>
-      <c r="E986" t="n">
-        <v>273.8</v>
-      </c>
-      <c r="F986" t="n">
-        <v>34</v>
-      </c>
-      <c r="G986" t="n">
-        <v>433301.2129164</v>
-      </c>
-      <c r="H986" t="n">
-        <v>2</v>
-      </c>
-      <c r="I986" t="n">
-        <v>274.9</v>
-      </c>
-      <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L986" t="n">
-        <v>1</v>
-      </c>
-      <c r="M986" t="inlineStr"/>
-    </row>
-    <row r="987">
-      <c r="A987" s="1" t="n">
-        <v>985</v>
-      </c>
-      <c r="B987" t="n">
-        <v>272.3</v>
-      </c>
-      <c r="C987" t="n">
-        <v>275.1</v>
-      </c>
-      <c r="D987" t="n">
-        <v>275.1</v>
-      </c>
-      <c r="E987" t="n">
-        <v>272.3</v>
-      </c>
-      <c r="F987" t="n">
-        <v>2529.8587</v>
-      </c>
-      <c r="G987" t="n">
-        <v>433301.2129164</v>
-      </c>
-      <c r="H987" t="n">
-        <v>0</v>
-      </c>
-      <c r="I987" t="inlineStr"/>
-      <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L987" t="n">
-        <v>1</v>
-      </c>
-      <c r="M987" t="inlineStr"/>
-    </row>
-    <row r="988">
-      <c r="A988" s="1" t="n">
-        <v>986</v>
-      </c>
-      <c r="B988" t="n">
-        <v>275.1</v>
-      </c>
-      <c r="C988" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="D988" t="n">
-        <v>276.7</v>
-      </c>
-      <c r="E988" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="F988" t="n">
-        <v>73499.63069999999</v>
-      </c>
-      <c r="G988" t="n">
-        <v>359801.5822164</v>
-      </c>
-      <c r="H988" t="n">
-        <v>0</v>
-      </c>
-      <c r="I988" t="inlineStr"/>
-      <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L988" t="n">
-        <v>1</v>
-      </c>
-      <c r="M988" t="inlineStr"/>
-    </row>
-    <row r="989">
-      <c r="A989" s="1" t="n">
-        <v>987</v>
-      </c>
-      <c r="B989" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="C989" t="n">
-        <v>266</v>
-      </c>
-      <c r="D989" t="n">
-        <v>266</v>
-      </c>
-      <c r="E989" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="F989" t="n">
-        <v>9167.6492</v>
-      </c>
-      <c r="G989" t="n">
-        <v>368969.2314164</v>
-      </c>
-      <c r="H989" t="n">
-        <v>2</v>
-      </c>
-      <c r="I989" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L989" t="n">
-        <v>1</v>
-      </c>
-      <c r="M989" t="inlineStr"/>
-    </row>
-    <row r="990">
-      <c r="A990" s="1" t="n">
-        <v>988</v>
-      </c>
-      <c r="B990" t="n">
-        <v>266</v>
-      </c>
-      <c r="C990" t="n">
-        <v>265.8</v>
-      </c>
-      <c r="D990" t="n">
-        <v>268</v>
-      </c>
-      <c r="E990" t="n">
-        <v>265.8</v>
-      </c>
-      <c r="F990" t="n">
-        <v>15638.6673</v>
-      </c>
-      <c r="G990" t="n">
-        <v>353330.5641164</v>
-      </c>
-      <c r="H990" t="n">
-        <v>2</v>
-      </c>
-      <c r="I990" t="n">
-        <v>266</v>
-      </c>
-      <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L990" t="n">
-        <v>1</v>
-      </c>
-      <c r="M990" t="inlineStr"/>
-    </row>
-    <row r="991">
-      <c r="A991" s="1" t="n">
-        <v>989</v>
-      </c>
-      <c r="B991" t="n">
-        <v>265.5</v>
-      </c>
-      <c r="C991" t="n">
-        <v>265.5</v>
-      </c>
-      <c r="D991" t="n">
-        <v>265.5</v>
-      </c>
-      <c r="E991" t="n">
-        <v>265.5</v>
-      </c>
-      <c r="F991" t="n">
-        <v>44.3073</v>
-      </c>
-      <c r="G991" t="n">
-        <v>353286.2568164</v>
-      </c>
-      <c r="H991" t="n">
-        <v>2</v>
-      </c>
-      <c r="I991" t="n">
-        <v>265.8</v>
-      </c>
-      <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L991" t="n">
-        <v>1</v>
-      </c>
-      <c r="M991" t="inlineStr"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="1" t="n">
-        <v>990</v>
-      </c>
-      <c r="B992" t="n">
-        <v>267</v>
-      </c>
-      <c r="C992" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="D992" t="n">
-        <v>274</v>
-      </c>
-      <c r="E992" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="F992" t="n">
-        <v>14402.2699</v>
-      </c>
-      <c r="G992" t="n">
-        <v>338883.9869164</v>
-      </c>
-      <c r="H992" t="n">
-        <v>2</v>
-      </c>
-      <c r="I992" t="n">
-        <v>265.5</v>
-      </c>
-      <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33228,7 +33160,7 @@
         <v>338887.7869164</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I993" t="n">
         <v>265.1</v>
@@ -33267,7 +33199,7 @@
         <v>332402.9131092</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I994" t="n">
         <v>274.8</v>
@@ -33306,9 +33238,11 @@
         <v>332395.3131092</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
-      </c>
-      <c r="I995" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I995" t="n">
+        <v>274</v>
+      </c>
       <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr">
         <is>
@@ -33343,9 +33277,11 @@
         <v>332395.3131092</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
-      </c>
-      <c r="I996" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I996" t="n">
+        <v>266</v>
+      </c>
       <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr">
         <is>
@@ -33380,7 +33316,7 @@
         <v>332405.7485092001</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I997" t="n">
         <v>266</v>
@@ -33419,7 +33355,7 @@
         <v>332465.3675092001</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I998" t="n">
         <v>266.3</v>
@@ -33458,7 +33394,7 @@
         <v>333521.1466092</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I999" t="n">
         <v>268</v>
@@ -33497,7 +33433,7 @@
         <v>346068.8258092001</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1000" t="n">
         <v>269.9</v>
@@ -33536,7 +33472,7 @@
         <v>352718.6827896</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1001" t="n">
         <v>273.8</v>
@@ -33575,7 +33511,7 @@
         <v>352718.6827896</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1002" t="n">
         <v>275</v>
@@ -33614,7 +33550,7 @@
         <v>352718.6827896</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1003" t="n">
         <v>275</v>
@@ -33653,7 +33589,7 @@
         <v>344539.6985896</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1004" t="n">
         <v>275</v>
@@ -33692,7 +33628,7 @@
         <v>339588.8667896001</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1005" t="n">
         <v>271</v>
@@ -33731,7 +33667,7 @@
         <v>340413.7329896</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1006" t="n">
         <v>266</v>
@@ -33770,7 +33706,7 @@
         <v>342262.0060896</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1007" t="n">
         <v>266.2</v>
@@ -33809,7 +33745,7 @@
         <v>346512.8500896</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1008" t="n">
         <v>267</v>
@@ -33848,7 +33784,7 @@
         <v>348376.4600896</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1009" t="n">
         <v>271</v>
@@ -33887,7 +33823,7 @@
         <v>392865.1299896</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1010" t="n">
         <v>275</v>
@@ -33926,7 +33862,7 @@
         <v>392865.1299896</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1011" t="n">
         <v>278</v>
@@ -33965,7 +33901,7 @@
         <v>397831.3015896</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1012" t="n">
         <v>278</v>
@@ -34004,9 +33940,11 @@
         <v>394324.7898896</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1013" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>280.1</v>
+      </c>
       <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
@@ -34041,9 +33979,11 @@
         <v>390986.8302896</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1014" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>276.1</v>
+      </c>
       <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr">
         <is>
@@ -34078,9 +34018,11 @@
         <v>391595.5191896</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1015" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>276</v>
+      </c>
       <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr">
         <is>
@@ -34115,7 +34057,7 @@
         <v>391089.0346896</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1016" t="n">
         <v>276.9</v>
@@ -34154,7 +34096,7 @@
         <v>374444.4261896</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1017" t="n">
         <v>276</v>
@@ -34193,7 +34135,7 @@
         <v>374561.0458896</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1018" t="n">
         <v>267.5</v>
@@ -34232,7 +34174,7 @@
         <v>374202.4824896</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1019" t="n">
         <v>271</v>
@@ -34271,7 +34213,7 @@
         <v>373900.8440896</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1020" t="n">
         <v>269</v>
@@ -34310,7 +34252,7 @@
         <v>373902.8440896</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1021" t="n">
         <v>268.3</v>
@@ -34349,7 +34291,7 @@
         <v>371915.1029896</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1022" t="n">
         <v>274</v>
@@ -34388,7 +34330,7 @@
         <v>371915.1029896</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1023" t="n">
         <v>272.7</v>
@@ -34427,7 +34369,7 @@
         <v>370296.1126896</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1024" t="n">
         <v>272.7</v>
@@ -34466,7 +34408,7 @@
         <v>370296.1126896</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1025" t="n">
         <v>272</v>
@@ -34505,7 +34447,7 @@
         <v>366666.0340896</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1026" t="n">
         <v>272</v>
@@ -34544,7 +34486,7 @@
         <v>368840.0957896</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1027" t="n">
         <v>270</v>
@@ -34583,7 +34525,7 @@
         <v>368840.0957896</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1028" t="n">
         <v>275.1</v>
@@ -34622,7 +34564,7 @@
         <v>367444.9511896</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1029" t="n">
         <v>275.1</v>
@@ -34661,7 +34603,7 @@
         <v>360600.5787896001</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1030" t="n">
         <v>275</v>
@@ -34700,7 +34642,7 @@
         <v>359944.9040896001</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1031" t="n">
         <v>273.9</v>
@@ -34739,7 +34681,7 @@
         <v>371724.2685896001</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1032" t="n">
         <v>270.2</v>
@@ -34778,7 +34720,7 @@
         <v>362121.0770896001</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1033" t="n">
         <v>274.9</v>
@@ -34817,7 +34759,7 @@
         <v>358019.7813896001</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1034" t="n">
         <v>270</v>
@@ -34856,7 +34798,7 @@
         <v>361337.5353896001</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1035" t="n">
         <v>268.9</v>
@@ -34895,7 +34837,7 @@
         <v>361337.5353896001</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1036" t="n">
         <v>269.1</v>
@@ -34934,7 +34876,7 @@
         <v>362439.2864896001</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1037" t="n">
         <v>269.1</v>
@@ -34973,7 +34915,7 @@
         <v>362439.2864896001</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1038" t="n">
         <v>271</v>
@@ -35012,7 +34954,7 @@
         <v>367966.5291896001</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1039" t="n">
         <v>271</v>
@@ -35051,7 +34993,7 @@
         <v>375461.3660552445</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1040" t="n">
         <v>273.9</v>
@@ -35090,7 +35032,7 @@
         <v>367326.2834552444</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1041" t="n">
         <v>274</v>
@@ -35129,7 +35071,7 @@
         <v>370369.3201552444</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1042" t="n">
         <v>273.9</v>
@@ -35168,7 +35110,7 @@
         <v>370369.3201552444</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1043" t="n">
         <v>274.8</v>
@@ -35207,7 +35149,7 @@
         <v>372466.4477896001</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1044" t="n">
         <v>274.8</v>
@@ -35246,7 +35188,7 @@
         <v>364616.9694239557</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1045" t="n">
         <v>275.5</v>
@@ -35285,7 +35227,7 @@
         <v>364021.0231239556</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1046" t="n">
         <v>274</v>
@@ -35324,7 +35266,7 @@
         <v>365059.9075583112</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1047" t="n">
         <v>272.2</v>
@@ -35363,7 +35305,7 @@
         <v>368179.9635583112</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1048" t="n">
         <v>276</v>
@@ -35402,7 +35344,7 @@
         <v>375395.5512583112</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1049" t="n">
         <v>276.2</v>
@@ -35441,7 +35383,7 @@
         <v>394017.5113583112</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1050" t="n">
         <v>277.3</v>
@@ -35480,7 +35422,7 @@
         <v>386778.0854583113</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1051" t="n">
         <v>278.5</v>
@@ -35519,7 +35461,7 @@
         <v>387511.5651583113</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1052" t="n">
         <v>274.2</v>
@@ -35558,7 +35500,7 @@
         <v>387511.5651583113</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1053" t="n">
         <v>274.4</v>
@@ -35597,7 +35539,7 @@
         <v>387513.9039583113</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1054" t="n">
         <v>274.4</v>
@@ -35636,7 +35578,7 @@
         <v>385470.6382583113</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1055" t="n">
         <v>274.9</v>
@@ -35675,7 +35617,7 @@
         <v>382952.5417583113</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1056" t="n">
         <v>274.3</v>
@@ -35714,7 +35656,7 @@
         <v>372774.8640583113</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1057" t="n">
         <v>274</v>
@@ -35753,7 +35695,7 @@
         <v>375316.8064583113</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1058" t="n">
         <v>271.6</v>
@@ -35792,7 +35734,7 @@
         <v>377294.5636583113</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1059" t="n">
         <v>271.8</v>
@@ -35831,7 +35773,7 @@
         <v>383060.2334019915</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1060" t="n">
         <v>274.2</v>
@@ -35870,7 +35812,7 @@
         <v>371302.7751019915</v>
       </c>
       <c r="H1061" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1061" t="n">
         <v>277.7</v>
@@ -35909,7 +35851,7 @@
         <v>375588.4158019915</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1062" t="n">
         <v>275</v>
@@ -35948,7 +35890,7 @@
         <v>375653.4991019915</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1063" t="n">
         <v>276.9</v>
@@ -35987,7 +35929,7 @@
         <v>375653.4898019916</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1064" t="n">
         <v>277</v>
@@ -36026,7 +35968,7 @@
         <v>388844.1709489151</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1065" t="n">
         <v>276.9</v>
@@ -36065,11 +36007,9 @@
         <v>402656.7841583113</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1066" t="n">
-        <v>279.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr">
         <is>
@@ -36104,11 +36044,9 @@
         <v>423614.1684270006</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1067" t="n">
-        <v>284.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr">
         <is>
@@ -36143,11 +36081,9 @@
         <v>423614.1684270006</v>
       </c>
       <c r="H1068" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1068" t="n">
-        <v>286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr">
         <is>
@@ -36182,11 +36118,9 @@
         <v>409740.3369270007</v>
       </c>
       <c r="H1069" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1069" t="n">
-        <v>286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr">
         <is>
@@ -36221,11 +36155,9 @@
         <v>409740.3369270007</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1070" t="n">
-        <v>282</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr">
         <is>
@@ -36260,11 +36192,9 @@
         <v>402740.4856270007</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1071" t="n">
-        <v>282</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr">
         <is>
@@ -36299,11 +36229,9 @@
         <v>401995.0162270007</v>
       </c>
       <c r="H1072" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1072" t="n">
-        <v>280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr">
         <is>
@@ -36338,7 +36266,7 @@
         <v>397231.5914270007</v>
       </c>
       <c r="H1073" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1073" t="n">
         <v>279</v>
@@ -36377,7 +36305,7 @@
         <v>397231.5914270007</v>
       </c>
       <c r="H1074" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1074" t="n">
         <v>278</v>
@@ -36416,7 +36344,7 @@
         <v>395532.7085270007</v>
       </c>
       <c r="H1075" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1075" t="n">
         <v>278</v>
@@ -36455,11 +36383,9 @@
         <v>395532.7085270007</v>
       </c>
       <c r="H1076" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1076" t="n">
-        <v>277</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr">
         <is>
@@ -36494,7 +36420,7 @@
         <v>395532.7085270007</v>
       </c>
       <c r="H1077" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1077" t="n">
         <v>277</v>
@@ -36533,7 +36459,7 @@
         <v>395532.7085270007</v>
       </c>
       <c r="H1078" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1078" t="n">
         <v>277</v>
@@ -36572,7 +36498,7 @@
         <v>395532.7085270007</v>
       </c>
       <c r="H1079" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1079" t="n">
         <v>277</v>
@@ -36611,7 +36537,7 @@
         <v>395532.7085270007</v>
       </c>
       <c r="H1080" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1080" t="n">
         <v>277</v>
@@ -36650,7 +36576,7 @@
         <v>399715.3476270007</v>
       </c>
       <c r="H1081" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1081" t="n">
         <v>277</v>
@@ -36689,7 +36615,7 @@
         <v>399705.3476270007</v>
       </c>
       <c r="H1082" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1082" t="n">
         <v>277.9</v>
@@ -36728,7 +36654,7 @@
         <v>399703.3476270007</v>
       </c>
       <c r="H1083" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1083" t="n">
         <v>277.8</v>
@@ -36767,7 +36693,7 @@
         <v>399717.7389270007</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1084" t="n">
         <v>275.5</v>
@@ -36806,7 +36732,7 @@
         <v>397968.4103270007</v>
       </c>
       <c r="H1085" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1085" t="n">
         <v>277.8</v>
@@ -36845,7 +36771,7 @@
         <v>397971.1461270007</v>
       </c>
       <c r="H1086" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1086" t="n">
         <v>275</v>
@@ -36862,6 +36788,6 @@
       <c r="M1086" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-20 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>825754.1923228747</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>815415.2488228746</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>859824.8970228747</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>838757.6037228747</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>838757.6037228747</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>766007.6703228747</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>676862.9298228747</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -12826,11 +12826,17 @@
         <v>370400.5999439807</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>287.3</v>
+      </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12859,11 +12865,17 @@
         <v>394258.0692439807</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>288</v>
+      </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12896,7 +12908,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12929,7 +12945,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12962,7 +12982,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12995,7 +13019,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13028,7 +13056,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13061,7 +13093,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13094,7 +13130,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13127,7 +13167,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13160,7 +13204,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13193,7 +13241,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13226,7 +13278,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13259,7 +13315,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13292,7 +13352,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13325,7 +13389,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13358,7 +13426,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13391,7 +13463,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13424,7 +13500,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13457,7 +13537,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13490,7 +13574,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13523,7 +13611,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13556,7 +13648,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13589,7 +13685,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13622,7 +13722,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13655,7 +13759,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13688,7 +13796,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13721,7 +13833,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13754,7 +13870,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13787,7 +13907,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13820,7 +13944,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13853,7 +13981,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13886,7 +14018,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13919,7 +14055,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13952,7 +14092,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13985,7 +14129,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14018,7 +14166,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14051,7 +14203,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14084,7 +14240,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14117,7 +14277,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14150,7 +14314,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14183,7 +14351,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14216,7 +14388,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14249,7 +14425,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14282,7 +14462,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14315,7 +14499,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14348,7 +14536,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14381,7 +14573,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14410,11 +14606,15 @@
         <v>821266.4228390523</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14443,11 +14643,15 @@
         <v>830315.6944390523</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14476,11 +14680,15 @@
         <v>820061.4336390522</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14509,11 +14717,15 @@
         <v>816578.8202390522</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14542,11 +14754,15 @@
         <v>807512.8038390522</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14579,7 +14795,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14608,11 +14828,15 @@
         <v>785350.5956390522</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14641,11 +14865,15 @@
         <v>812547.1629390522</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14674,11 +14902,15 @@
         <v>808700.7850390523</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14707,11 +14939,15 @@
         <v>807523.5853390523</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14740,11 +14976,15 @@
         <v>801997.7832390523</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14777,7 +15017,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14806,11 +15050,15 @@
         <v>758106.0476326874</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14839,11 +15087,15 @@
         <v>745118.0685326874</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14872,11 +15124,15 @@
         <v>756981.6844326874</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14909,7 +15165,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14942,7 +15202,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14971,11 +15235,15 @@
         <v>771892.0182685285</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15004,11 +15272,15 @@
         <v>771892.0182685285</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15037,11 +15309,15 @@
         <v>778820.8633819189</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15070,11 +15346,15 @@
         <v>763642.2150079189</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15103,11 +15383,15 @@
         <v>753483.6429079189</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15136,11 +15420,15 @@
         <v>716264.7856079189</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15169,11 +15457,15 @@
         <v>717472.5358079189</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15202,11 +15494,15 @@
         <v>747510.6653202081</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15235,11 +15531,15 @@
         <v>747218.2570202081</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15268,11 +15568,15 @@
         <v>748276.994420208</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15301,11 +15605,15 @@
         <v>758188.605920208</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15334,11 +15642,15 @@
         <v>760607.4508202081</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15367,11 +15679,15 @@
         <v>755733.022320208</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15400,11 +15716,15 @@
         <v>749375.874220208</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15433,11 +15753,15 @@
         <v>747374.793220208</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15466,11 +15790,15 @@
         <v>724430.8650202081</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15499,11 +15827,15 @@
         <v>727844.8473202081</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15532,11 +15864,15 @@
         <v>706133.0001202081</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15565,11 +15901,15 @@
         <v>738422.4573202081</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15598,11 +15938,15 @@
         <v>755680.0504202081</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15631,11 +15975,15 @@
         <v>774495.6099202081</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15664,11 +16012,15 @@
         <v>774344.9773202081</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15697,11 +16049,15 @@
         <v>774344.9773202081</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15730,11 +16086,15 @@
         <v>774344.9773202081</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15763,11 +16123,15 @@
         <v>773502.1099202081</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15796,11 +16160,15 @@
         <v>771584.4242335326</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15829,11 +16197,15 @@
         <v>774292.5178917679</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15862,11 +16234,15 @@
         <v>763722.2398574395</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15895,11 +16271,15 @@
         <v>730349.1648380904</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15932,7 +16312,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15961,11 +16345,15 @@
         <v>670083.9501380904</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15994,11 +16382,15 @@
         <v>676175.5636380904</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16027,11 +16419,15 @@
         <v>661160.3714380903</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16060,11 +16456,15 @@
         <v>766333.3698380904</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16093,11 +16493,15 @@
         <v>764065.2970380904</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16126,11 +16530,15 @@
         <v>770325.3589494469</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16159,11 +16567,15 @@
         <v>782037.0428494469</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16192,11 +16604,15 @@
         <v>767750.1707494468</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16225,11 +16641,15 @@
         <v>755759.6318494468</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16258,11 +16678,15 @@
         <v>717266.8383494468</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16291,11 +16715,15 @@
         <v>684165.9181494467</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16324,11 +16752,15 @@
         <v>717635.9590494467</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16357,11 +16789,15 @@
         <v>727191.9448494468</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16390,11 +16826,15 @@
         <v>738534.5747494467</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16423,11 +16863,15 @@
         <v>736345.0993494467</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16460,7 +16904,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16493,7 +16941,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16526,7 +16978,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16559,7 +17015,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16592,7 +17052,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16625,7 +17089,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16658,7 +17126,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16691,7 +17163,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16724,7 +17200,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16757,7 +17237,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16790,7 +17274,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16823,7 +17311,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16856,7 +17348,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16889,7 +17385,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16922,7 +17422,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16955,7 +17459,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -16988,7 +17496,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17021,7 +17533,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17054,7 +17570,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17087,7 +17607,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17120,7 +17644,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17153,7 +17681,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17186,7 +17718,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17219,7 +17755,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17252,7 +17792,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17285,7 +17829,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17318,7 +17866,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17351,7 +17903,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17384,7 +17940,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17417,7 +17977,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17450,7 +18014,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17483,7 +18051,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17516,7 +18088,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17549,7 +18125,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17582,7 +18162,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17615,7 +18199,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17648,7 +18236,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17681,7 +18273,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17714,7 +18310,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17747,7 +18347,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17780,7 +18384,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17813,7 +18421,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17846,7 +18458,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17879,7 +18495,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17912,7 +18532,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17945,7 +18569,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17978,7 +18606,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18011,7 +18643,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18044,7 +18680,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18077,7 +18717,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18110,7 +18754,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18143,7 +18791,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18176,7 +18828,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18209,7 +18865,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18242,7 +18902,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18275,7 +18939,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18308,7 +18976,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18341,7 +19013,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18374,7 +19050,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18407,7 +19087,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18440,7 +19124,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18473,7 +19161,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18506,7 +19198,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18539,7 +19235,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18572,7 +19272,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18605,7 +19309,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18638,7 +19346,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18671,7 +19383,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18704,7 +19420,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18737,7 +19457,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18770,7 +19494,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18803,7 +19531,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18836,7 +19568,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18869,7 +19605,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18902,7 +19642,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18935,7 +19679,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -18968,7 +19716,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19001,7 +19753,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19034,7 +19790,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19067,7 +19827,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19100,7 +19864,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19133,7 +19901,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19166,7 +19938,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19199,7 +19975,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19232,7 +20012,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19265,7 +20049,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19298,7 +20086,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19331,7 +20123,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19364,7 +20160,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19397,7 +20197,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19430,7 +20234,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19463,7 +20271,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19496,7 +20308,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19529,7 +20345,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19562,7 +20382,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19595,7 +20419,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19628,7 +20456,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19661,7 +20493,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19694,7 +20530,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19727,7 +20567,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19760,7 +20604,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19793,7 +20641,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19826,7 +20678,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19859,7 +20715,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19892,7 +20752,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19925,7 +20789,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19958,7 +20826,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19991,7 +20863,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20024,7 +20900,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20057,7 +20937,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20090,7 +20974,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20123,7 +21011,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20156,7 +21048,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20189,7 +21085,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20222,7 +21122,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20255,7 +21159,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20288,7 +21196,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20321,7 +21233,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20354,7 +21270,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20387,7 +21307,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20420,7 +21344,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20453,7 +21381,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20486,7 +21418,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20519,7 +21455,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20552,7 +21492,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20585,7 +21529,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20618,7 +21566,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20651,7 +21603,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20684,7 +21640,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20717,7 +21677,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20750,7 +21714,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20783,7 +21751,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20816,7 +21788,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20849,7 +21825,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20882,7 +21862,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20915,7 +21899,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20948,7 +21936,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20981,7 +21973,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21014,7 +22010,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21047,7 +22047,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21080,7 +22084,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21113,7 +22121,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21146,7 +22158,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21179,7 +22195,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21212,7 +22232,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21245,7 +22269,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21278,7 +22306,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21311,7 +22343,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21344,7 +22380,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21377,7 +22417,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21410,7 +22454,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21443,7 +22491,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21476,7 +22528,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21509,7 +22565,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21542,7 +22602,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21575,7 +22639,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21608,7 +22676,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21641,7 +22713,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21674,7 +22750,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21707,7 +22787,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21740,7 +22824,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21773,7 +22861,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21806,7 +22898,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21839,7 +22935,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21872,7 +22972,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21905,7 +23009,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21938,7 +23046,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -21971,7 +23083,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22004,7 +23120,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22037,7 +23157,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22070,7 +23194,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22103,7 +23231,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22136,7 +23268,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22169,7 +23305,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22202,7 +23342,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22235,7 +23379,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22268,7 +23416,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22301,7 +23453,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22334,7 +23490,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22367,7 +23527,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22400,7 +23564,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22433,7 +23601,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22466,7 +23638,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22499,7 +23675,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22532,7 +23712,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22565,7 +23749,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22598,7 +23786,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22631,7 +23823,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22664,7 +23860,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22697,7 +23897,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22730,7 +23934,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22763,7 +23971,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22796,7 +24008,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22829,7 +24045,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -22862,7 +24082,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22895,7 +24119,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -22928,7 +24156,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -22961,7 +24193,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -22994,7 +24230,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23027,7 +24267,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23060,7 +24304,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23093,7 +24341,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23126,7 +24378,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23159,7 +24415,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23192,7 +24452,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23225,7 +24489,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23258,7 +24526,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23291,7 +24563,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23324,7 +24600,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23357,7 +24637,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23390,7 +24674,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23423,7 +24711,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23456,7 +24748,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23489,7 +24785,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23522,7 +24822,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23555,7 +24859,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23588,7 +24896,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23621,7 +24933,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23654,7 +24970,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23687,7 +25007,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23720,7 +25044,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23753,7 +25081,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23786,7 +25118,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -23819,7 +25155,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -23852,7 +25192,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -23885,7 +25229,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -23918,7 +25266,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -23951,7 +25303,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -23984,7 +25340,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24017,7 +25377,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24050,7 +25414,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24083,7 +25451,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24116,7 +25488,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24149,7 +25525,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24182,7 +25562,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24215,7 +25599,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24248,7 +25636,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24281,7 +25673,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24314,7 +25710,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24347,7 +25747,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24380,7 +25784,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24413,7 +25821,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24446,7 +25858,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24479,7 +25895,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24512,7 +25932,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24545,7 +25969,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24578,7 +26006,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24611,7 +26043,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24644,7 +26080,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24677,7 +26117,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24710,7 +26154,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24743,7 +26191,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24776,7 +26228,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24809,7 +26265,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24842,7 +26302,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24875,7 +26339,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -24908,7 +26376,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -24941,7 +26413,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -24974,7 +26450,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25007,7 +26487,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25040,7 +26524,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25073,7 +26561,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25106,7 +26598,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25139,7 +26635,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25172,7 +26672,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25205,7 +26709,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25238,7 +26746,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25271,7 +26783,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25304,7 +26820,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25337,7 +26857,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25370,7 +26894,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25403,7 +26931,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25436,7 +26968,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25469,7 +27005,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25502,7 +27042,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25535,7 +27079,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25568,7 +27116,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25601,7 +27153,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25634,7 +27190,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25667,7 +27227,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25700,7 +27264,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25733,7 +27301,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -25766,7 +27338,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25799,7 +27375,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -25832,7 +27412,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -25865,7 +27449,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -25898,7 +27486,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -25931,7 +27523,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -25964,7 +27560,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -25997,7 +27597,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26030,7 +27634,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26063,7 +27671,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26096,7 +27708,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26129,7 +27745,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26162,7 +27782,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26195,7 +27819,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26228,7 +27856,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26261,7 +27893,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26294,7 +27930,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26327,7 +27967,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26360,7 +28004,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26393,7 +28041,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26426,7 +28078,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26459,7 +28115,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26492,7 +28152,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26525,7 +28189,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26558,7 +28226,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26591,7 +28263,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26624,7 +28300,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26657,7 +28337,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26690,7 +28374,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26723,7 +28411,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26756,7 +28448,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26789,7 +28485,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26822,7 +28522,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -26855,7 +28559,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -26888,7 +28596,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -26921,7 +28633,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -26954,7 +28670,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -26987,7 +28707,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27020,7 +28744,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27053,7 +28781,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27086,7 +28818,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27119,7 +28855,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27152,7 +28892,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27185,7 +28929,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27218,7 +28966,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27251,7 +29003,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27284,7 +29040,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27317,7 +29077,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27350,7 +29114,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27383,7 +29151,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27416,7 +29188,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27449,7 +29225,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27482,7 +29262,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27515,7 +29299,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27548,7 +29336,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27581,7 +29373,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27614,7 +29410,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27647,7 +29447,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27680,7 +29484,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27713,7 +29521,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27746,7 +29558,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27779,7 +29595,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27812,7 +29632,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27845,7 +29669,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27878,7 +29706,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -27911,7 +29743,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -27944,7 +29780,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -27977,7 +29817,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28010,7 +29854,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28043,7 +29891,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28076,7 +29928,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28109,7 +29965,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28142,7 +30002,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28175,7 +30039,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28208,7 +30076,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28241,7 +30113,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28274,7 +30150,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28307,7 +30187,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28340,7 +30224,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28373,7 +30261,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28406,7 +30298,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28439,7 +30335,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28472,7 +30372,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28505,7 +30409,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28538,7 +30446,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28571,7 +30483,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28604,7 +30520,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28637,7 +30557,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28670,7 +30594,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28703,7 +30631,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28736,7 +30668,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28769,7 +30705,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28802,7 +30742,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28835,7 +30779,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28868,7 +30816,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -28901,7 +30853,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -28934,7 +30890,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -28967,7 +30927,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29000,7 +30964,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29033,7 +31001,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29066,7 +31038,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29099,7 +31075,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29132,7 +31112,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29165,7 +31149,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29198,7 +31186,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29231,7 +31223,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29264,7 +31260,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29297,7 +31297,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29330,7 +31334,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29363,7 +31371,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29396,7 +31408,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29429,7 +31445,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29462,7 +31482,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29495,7 +31519,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29528,7 +31556,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29561,7 +31593,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29594,7 +31630,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29627,7 +31667,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29660,7 +31704,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29693,7 +31741,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29726,7 +31778,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29759,7 +31815,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -29792,7 +31852,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -29825,7 +31889,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -29858,7 +31926,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29891,7 +31963,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -29924,7 +32000,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -29957,7 +32037,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -29990,7 +32074,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30023,7 +32111,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30056,7 +32148,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30089,7 +32185,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30122,7 +32222,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30155,7 +32259,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30188,7 +32296,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30221,7 +32333,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30254,7 +32370,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30287,7 +32407,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30320,7 +32444,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30353,7 +32481,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30386,7 +32518,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30419,7 +32555,11 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30452,7 +32592,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30485,7 +32629,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30518,7 +32666,11 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30551,7 +32703,11 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -30584,7 +32740,11 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -30617,7 +32777,11 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -30650,7 +32814,11 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -30683,7 +32851,11 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -30716,7 +32888,11 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -30749,7 +32925,11 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -30782,7 +32962,11 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -30815,7 +32999,11 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -30848,7 +33036,11 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -30881,7 +33073,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -30914,7 +33110,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -30947,7 +33147,11 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -30980,7 +33184,11 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31013,7 +33221,11 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31046,7 +33258,11 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31079,7 +33295,11 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31112,7 +33332,11 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31145,7 +33369,11 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31178,7 +33406,11 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31211,7 +33443,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31244,7 +33480,11 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31277,7 +33517,11 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -31310,7 +33554,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31343,7 +33591,11 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31376,7 +33628,11 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -31409,7 +33665,11 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -31442,7 +33702,11 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -31475,7 +33739,11 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -31508,7 +33776,11 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -31541,7 +33813,11 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -31574,7 +33850,11 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -31607,7 +33887,11 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -31640,7 +33924,11 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -31673,7 +33961,11 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -31706,7 +33998,11 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -31739,7 +34035,11 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -31772,7 +34072,11 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -31805,7 +34109,11 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -31838,7 +34146,11 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -31871,7 +34183,11 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -31904,7 +34220,11 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -31937,7 +34257,11 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -31970,7 +34294,11 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32003,7 +34331,11 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32036,7 +34368,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32069,7 +34405,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32102,7 +34442,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32135,7 +34479,11 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32168,7 +34516,11 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -32201,7 +34553,11 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -32234,7 +34590,11 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -32267,7 +34627,11 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -32300,7 +34664,11 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -32333,7 +34701,11 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -32366,7 +34738,11 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -32399,7 +34775,11 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -32432,7 +34812,11 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -32465,7 +34849,11 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -32498,7 +34886,11 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -32531,7 +34923,11 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -32564,7 +34960,11 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -32597,7 +34997,11 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -32630,7 +35034,11 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -32663,7 +35071,11 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -32696,7 +35108,11 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -32729,7 +35145,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -32762,7 +35182,11 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -32795,7 +35219,11 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -32828,7 +35256,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -32861,7 +35293,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -32894,7 +35330,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -32927,7 +35367,11 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -32960,7 +35404,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -32993,7 +35441,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33026,7 +35478,11 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33055,11 +35511,17 @@
         <v>353330.5641164</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
-      </c>
-      <c r="I990" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I990" t="n">
+        <v>266</v>
+      </c>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33088,11 +35550,17 @@
         <v>353286.2568164</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
-      </c>
-      <c r="I991" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I991" t="n">
+        <v>265.8</v>
+      </c>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33129,7 +35597,7 @@
       <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L992" t="n">
@@ -33199,11 +35667,9 @@
         <v>332402.9131092</v>
       </c>
       <c r="H994" t="n">
-        <v>1</v>
-      </c>
-      <c r="I994" t="n">
-        <v>274.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr">
         <is>
@@ -33238,11 +35704,9 @@
         <v>332395.3131092</v>
       </c>
       <c r="H995" t="n">
-        <v>1</v>
-      </c>
-      <c r="I995" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr">
         <is>
@@ -33511,11 +35975,9 @@
         <v>352718.6827896</v>
       </c>
       <c r="H1002" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1002" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr">
         <is>
@@ -33550,11 +36012,9 @@
         <v>352718.6827896</v>
       </c>
       <c r="H1003" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1003" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr">
         <is>
@@ -33628,11 +36088,9 @@
         <v>339588.8667896001</v>
       </c>
       <c r="H1005" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1005" t="n">
-        <v>271</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr">
         <is>
@@ -33862,11 +36320,9 @@
         <v>392865.1299896</v>
       </c>
       <c r="H1011" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1011" t="n">
-        <v>278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr">
         <is>
@@ -33901,11 +36357,9 @@
         <v>397831.3015896</v>
       </c>
       <c r="H1012" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1012" t="n">
-        <v>278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr">
         <is>
@@ -33940,11 +36394,9 @@
         <v>394324.7898896</v>
       </c>
       <c r="H1013" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1013" t="n">
-        <v>280.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
@@ -33979,11 +36431,9 @@
         <v>390986.8302896</v>
       </c>
       <c r="H1014" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1014" t="n">
-        <v>276.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr">
         <is>
@@ -34018,11 +36468,9 @@
         <v>391595.5191896</v>
       </c>
       <c r="H1015" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1015" t="n">
-        <v>276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr">
         <is>
@@ -34057,11 +36505,9 @@
         <v>391089.0346896</v>
       </c>
       <c r="H1016" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1016" t="n">
-        <v>276.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr">
         <is>
@@ -34096,11 +36542,9 @@
         <v>374444.4261896</v>
       </c>
       <c r="H1017" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1017" t="n">
-        <v>276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr">
         <is>
@@ -34135,11 +36579,9 @@
         <v>374561.0458896</v>
       </c>
       <c r="H1018" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1018" t="n">
-        <v>267.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr">
         <is>
@@ -34174,11 +36616,9 @@
         <v>374202.4824896</v>
       </c>
       <c r="H1019" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1019" t="n">
-        <v>271</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr">
         <is>
@@ -34213,11 +36653,9 @@
         <v>373900.8440896</v>
       </c>
       <c r="H1020" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1020" t="n">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr">
         <is>
@@ -34291,11 +36729,9 @@
         <v>371915.1029896</v>
       </c>
       <c r="H1022" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1022" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr">
         <is>
@@ -34330,11 +36766,9 @@
         <v>371915.1029896</v>
       </c>
       <c r="H1023" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1023" t="n">
-        <v>272.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr">
         <is>
@@ -34408,11 +36842,9 @@
         <v>370296.1126896</v>
       </c>
       <c r="H1025" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1025" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr">
         <is>
@@ -34447,11 +36879,9 @@
         <v>366666.0340896</v>
       </c>
       <c r="H1026" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1026" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr">
         <is>
@@ -34486,11 +36916,9 @@
         <v>368840.0957896</v>
       </c>
       <c r="H1027" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1027" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr">
         <is>
@@ -34564,11 +36992,9 @@
         <v>367444.9511896</v>
       </c>
       <c r="H1029" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1029" t="n">
-        <v>275.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr">
         <is>
@@ -34603,11 +37029,9 @@
         <v>360600.5787896001</v>
       </c>
       <c r="H1030" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1030" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr">
         <is>
@@ -34642,11 +37066,9 @@
         <v>359944.9040896001</v>
       </c>
       <c r="H1031" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1031" t="n">
-        <v>273.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr">
         <is>
@@ -34720,11 +37142,9 @@
         <v>362121.0770896001</v>
       </c>
       <c r="H1033" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1033" t="n">
-        <v>274.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr">
         <is>
@@ -34759,11 +37179,9 @@
         <v>358019.7813896001</v>
       </c>
       <c r="H1034" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1034" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr">
         <is>
@@ -36007,9 +38425,11 @@
         <v>402656.7841583113</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1066" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>279.9</v>
+      </c>
       <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr">
         <is>
@@ -36044,9 +38464,11 @@
         <v>423614.1684270006</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1067" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>284.9</v>
+      </c>
       <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr">
         <is>
@@ -36266,11 +38688,9 @@
         <v>397231.5914270007</v>
       </c>
       <c r="H1073" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1073" t="n">
-        <v>279</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr">
         <is>
@@ -36383,9 +38803,11 @@
         <v>395532.7085270007</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1076" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>277</v>
+      </c>
       <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr">
         <is>
@@ -36788,6 +39210,6 @@
       <c r="M1086" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>